--- a/Production/BOM M74R2.xlsx
+++ b/Production/BOM M74R2.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="540" windowWidth="18855" windowHeight="9150"/>
+  </bookViews>
   <sheets>
     <sheet name="BOM M74R2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Titles" localSheetId="0">'BOM M74R2'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'BOM M74R2'!$1:$1</definedName>
   </definedNames>
-  <calcPr fullPrecision="1" calcMode="auto" calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="158">
   <si>
     <t>Quantity</t>
   </si>
@@ -487,62 +490,30 @@
   </si>
   <si>
     <t>d=1.2/2.2 mm</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -551,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -564,46 +535,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -640,27 +571,9 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -694,1167 +607,1405 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf xxid="0" numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf xxid="1" numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="2" numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="3" numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="4" numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="5" numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="6" numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="7" numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="8" numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="9" numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="10" numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="11" numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="12" numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="13" numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="14" numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="16" numFmtId="43" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="17" numFmtId="41" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="18" numFmtId="44" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="19" numFmtId="42" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf xxid="20" numFmtId="9" fontId="1" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
-    <xf xxid="15" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
-    <xf xxid="21" numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf xxid="22" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1"/>
-    <xf xxid="23" numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
-    <xf xxid="24" numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1"/>
-    <xf xxid="25" numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
-    <xf xxid="26" numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
-    <xf xxid="27" numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1"/>
-    <xf xxid="28" numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1"/>
-    <xf xxid="29" numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1"/>
-    <xf xxid="30" numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1"/>
-    <xf xxid="31" numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
-    <xf xxid="32" numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
-    <xf xxid="33" numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="34" numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="35" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="36" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
-    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1"/>
-    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1"/>
-    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1"/>
-    <xf xxid="48" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1"/>
-    <xf xxid="49" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="50" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="" defaultPivotStyle=""/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19.953125" customWidth="1"/>
-    <col min="2" max="2" width="16.703125" customWidth="1"/>
-    <col min="3" max="3" width="19.953125" customWidth="1"/>
-    <col min="4" max="6" width="16.703125" customWidth="1"/>
-    <col min="7" max="7" width="19.953125" customWidth="1"/>
-    <col min="8" max="8" width="16.703125" customWidth="1"/>
-    <col min="9" max="9" width="19.953125" customWidth="1"/>
-    <col min="10" max="11" width="16.703125" customWidth="1"/>
-    <col min="12" max="12" width="19.953125" customWidth="1"/>
-    <col min="13" max="14" width="16.703125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="14" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="26">
+      <c r="A2" s="6">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="28">
+      <c r="A3" s="7">
         <v>6</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="17" t="s">
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="17" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="28">
+      <c r="A4" s="7">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="17" t="s">
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="17"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="28">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="17" t="s">
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="17"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="28">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="17"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="28">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="17" t="s">
+      <c r="M7" s="1"/>
+      <c r="N7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="28">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="I8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="17"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="28">
-        <v>1</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="I9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="17"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="28">
-        <v>1</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17" t="s">
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="17"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="28">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="I11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="28">
-        <v>1</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="17" t="s">
+      <c r="I12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="17"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="28">
-        <v>1</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="17" t="s">
+      <c r="I13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="17"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="28">
+      <c r="A14" s="7">
         <v>7</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J14" s="17" t="s">
+      <c r="I14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="17"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="28">
+      <c r="A15" s="7">
         <v>3</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="17" t="s">
+      <c r="I15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="17"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="28">
+      <c r="A16" s="7">
         <v>4</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="17" t="s">
+      <c r="I16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="15"/>
-      <c r="N16" s="17"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="28">
+      <c r="A17" s="7">
         <v>3</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="I17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M17" s="15"/>
-      <c r="N17" s="17"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="28">
+      <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J18" s="17" t="s">
+      <c r="I18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M18" s="15"/>
-      <c r="N18" s="17"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="28">
+      <c r="A19" s="7">
         <v>9</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="17" t="s">
+      <c r="I19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="17"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="28">
-        <v>1</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J20" s="17" t="s">
+      <c r="I20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="15"/>
-      <c r="N20" s="17"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="28">
-        <v>1</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="I21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M21" s="15"/>
-      <c r="N21" s="17"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="28">
-        <v>1</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="7">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="17" t="s">
+      <c r="I22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="17"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="28">
+      <c r="A23" s="7">
         <v>3</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" s="17" t="s">
+      <c r="I23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="15"/>
-      <c r="N23" s="17"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="28">
-        <v>1</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="7">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="17" t="s">
+      <c r="I24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="M24" s="15"/>
-      <c r="N24" s="17"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="28">
+      <c r="A25" s="7">
         <v>2</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="17" t="s">
+      <c r="I25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M25" s="15"/>
-      <c r="N25" s="17"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="28">
+      <c r="A26" s="7">
         <v>6</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="17" t="s">
+      <c r="I26" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M26" s="15"/>
-      <c r="N26" s="17"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="28">
-        <v>1</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="7">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17" t="s">
+      <c r="H27" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M27" s="17" t="s">
+      <c r="M27" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N27" s="17"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="28">
-        <v>1</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="17"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1862,28 +2013,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
